--- a/xlsx/林肯纪念堂_intext.xlsx
+++ b/xlsx/林肯纪念堂_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_林肯纪念堂</t>
+    <t>政策_政策_美国_林肯纪念堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
   </si>
   <si>
-    <t>亞伯拉罕·林肯</t>
+    <t>亚伯拉罕·林肯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>國家廣場</t>
+    <t>国家广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%BA%AA%E5%BF%B5%E7%A2%91</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%88%B0%E8%80%81%E5%85%B5%E7%B4%80%E5%BF%B5%E7%A2%91</t>
   </si>
   <si>
-    <t>韓戰老兵紀念碑</t>
+    <t>韩战老兵纪念碑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%89%98%E5%BE%B7%C2%B7%E6%9E%97%E8%82%AF</t>
   </si>
   <si>
-    <t>羅伯特·托德·林肯</t>
+    <t>罗伯特·托德·林肯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%A8%E5%A0%A1%E6%BC%94%E8%AA%AA</t>
   </si>
   <si>
-    <t>蓋茨堡演說</t>
+    <t>盖茨堡演说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%A5%B4</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>非裔美國人民權運動</t>
+    <t>非裔美国人民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E6%9C%89%E4%B8%80%E5%80%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>我有一個夢</t>
+    <t>我有一个梦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/1%E7%BE%8E%E5%88%86%E7%A1%AC%E5%B9%A3</t>
   </si>
   <si>
-    <t>1美分硬幣</t>
+    <t>1美分硬币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/5%E7%BE%8E%E5%85%83%E7%BA%B8%E5%B8%81</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
